--- a/datalinkage/output/humanity_out.xlsx
+++ b/datalinkage/output/humanity_out.xlsx
@@ -19,10 +19,10 @@
     <t>eid</t>
   </si>
   <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>start_day</t>
+    <t>office</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
   <si>
     <t>start_time</t>
